--- a/assets/xlsx/model.xlsx
+++ b/assets/xlsx/model.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pramos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA2826-58BD-4FB1-ACA1-083B90A85988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output - AppAtivoFixo" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,14 +337,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
